--- a/xlsxs/dados_2013_2023.xlsx
+++ b/xlsxs/dados_2013_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f16b29a635413f6b/Desktop/Cousas da Facu/Pesquisa/Projeto IC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f16b29a635413f6b/Desktop/Cousas da Facu/Pesquisa/Projeto IC/xlsxs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="206" documentId="13_ncr:1_{3C9FE701-5DDF-4811-9CF0-122507226C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A107C657-988C-4997-AE59-5419FAA003C8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20520" yWindow="4470" windowWidth="20640" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1726,14 +1726,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1771,9 +1767,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1806,26 +1802,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1858,26 +1837,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2054,7 +2016,7 @@
   <dimension ref="A1:H2069"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J2060" sqref="J2060"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
